--- a/audio_BOM_2023.02.15.13.14.xlsx
+++ b/audio_BOM_2023.02.15.13.14.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ac837\OneDrive\바탕 화면\A-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\A-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1206,18 +1206,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B11:B13"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="86.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.4140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="29.4140625" customWidth="1"/>
+    <col min="2" max="2" width="86.35546875" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="34" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="51" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>9</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>10</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>11</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>12</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>14</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>15</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>16</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>17</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>18</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>20</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>22</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>23</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>24</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>25</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>26</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>28</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>29</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>30</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>31</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>32</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>33</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>34</v>
       </c>
